--- a/Grid.xlsx
+++ b/Grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianrusch/Workspace/Studium/minecraft-pathfinding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6353D593-7F55-4A48-9C01-24CCBF414B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C73FCF6-4087-9E4B-B901-2BB43C0346EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" xr2:uid="{28931E60-9C96-0E4E-8C8E-65C39B2D5FFD}"/>
+    <workbookView xWindow="20000" yWindow="460" windowWidth="28800" windowHeight="16840" xr2:uid="{28931E60-9C96-0E4E-8C8E-65C39B2D5FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
-    <t>St</t>
+    <t>Eno</t>
   </si>
   <si>
-    <t>Eno</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Stxx</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <dimension ref="D3:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,31 +475,85 @@
       <c r="D8">
         <v>-62</v>
       </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>-63</v>
       </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
       <c r="L9" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>-64</v>
       </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>-65</v>
       </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>-66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.2">
